--- a/item.xlsx
+++ b/item.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyPython\docx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myPython\DetectionSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633164FC-C3FF-4F30-A602-6C5198C33E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5AD5BB0-92CE-4E60-BCC0-726B5B8933FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="798">
   <si>
     <t>MAC</t>
   </si>
@@ -10168,6 +10169,1280 @@
       </rPr>
       <t>蒸气</t>
     </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>号</t>
+  </si>
+  <si>
+    <t>总尘</t>
+  </si>
+  <si>
+    <t>呼尘</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>白云石粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>玻璃钢粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>茶尘</t>
+  </si>
+  <si>
+    <r>
+      <t>4.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>沉淀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SiO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（白炭黑）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>大理石粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>6.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>电焊烟尘</t>
+  </si>
+  <si>
+    <r>
+      <t>7.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>二氧化钛粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>8.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>沸石粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>9.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>酚醛树酯粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>10.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>11.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>硅灰石粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>12.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>13.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>14.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>活性炭粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>15.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>聚丙烯粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>16.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>聚丙烯腈纤维粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>17.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>聚氯乙烯粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>18.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>聚乙烯粉尘</t>
+  </si>
+  <si>
+    <t>氧化铝粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>20.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>黄麻</t>
+  </si>
+  <si>
+    <t>苎麻</t>
+  </si>
+  <si>
+    <r>
+      <t>21.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>22.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>棉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>23.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>木粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>24.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>凝聚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>SiO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粉尘</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>25.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>膨润土粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>26.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>皮毛粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>27.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>28.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>桑蚕丝尘</t>
+  </si>
+  <si>
+    <r>
+      <t>29.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>砂轮磨尘</t>
+  </si>
+  <si>
+    <r>
+      <t>30.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>石膏粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>31.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>石灰石粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>33.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>石墨粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>34.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>35.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>炭黑粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>36.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>碳化硅粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>37.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>碳纤维粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>39.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>40.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>洗衣粉混合尘</t>
+  </si>
+  <si>
+    <r>
+      <t>41.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>烟草尘</t>
+  </si>
+  <si>
+    <r>
+      <t>42.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>萤石混合性粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>43.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>云母粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>44.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>珍珠岩粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>45.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>蛭石粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>46.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>重晶石粉尘</t>
+  </si>
+  <si>
+    <r>
+      <t>47.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>矿渣棉粉尘</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>石棉粉尘</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>石棉纤维</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩棉粉尘</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃棉粉尘</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>人造玻璃质纤维</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻尘</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚麻</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他粉尘</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>谷物粉尘</t>
+  </si>
+  <si>
+    <t>硅藻土粉尘</t>
+  </si>
+  <si>
+    <t>滑石粉尘</t>
+  </si>
+  <si>
+    <t>煤尘</t>
+  </si>
+  <si>
+    <t>水泥粉尘</t>
+  </si>
+  <si>
+    <t>稀土粉尘</t>
+  </si>
+  <si>
+    <t>矽尘1</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>矽尘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>矽尘3</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -10462,19 +11737,22 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10485,9 +11763,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10771,7 +12046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
@@ -12716,7 +13991,7 @@
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="34"/>
+      <c r="A98" s="31"/>
       <c r="B98" s="13" t="s">
         <v>207</v>
       </c>
@@ -12734,7 +14009,7 @@
       </c>
     </row>
     <row r="99" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="35"/>
+      <c r="A99" s="32"/>
       <c r="B99" s="4" t="s">
         <v>208</v>
       </c>
@@ -12812,40 +14087,40 @@
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="33" t="s">
+      <c r="A103" s="36" t="s">
         <v>215</v>
       </c>
-      <c r="B103" s="36" t="s">
+      <c r="B103" s="37" t="s">
         <v>683</v>
       </c>
-      <c r="C103" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D103" s="31">
+      <c r="C103" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D103" s="33">
         <v>2</v>
       </c>
-      <c r="E103" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F103" s="31" t="s">
+      <c r="E103" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="33" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="34"/>
-      <c r="B104" s="37"/>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
+      <c r="A104" s="31"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="34"/>
+      <c r="D104" s="34"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
     </row>
     <row r="105" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="35"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="32"/>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32"/>
-      <c r="F105" s="32"/>
+      <c r="A105" s="32"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="35"/>
+      <c r="D105" s="35"/>
+      <c r="E105" s="35"/>
+      <c r="F105" s="35"/>
     </row>
     <row r="106" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
@@ -14764,7 +16039,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A202" s="34"/>
+      <c r="A202" s="31"/>
       <c r="B202" s="13" t="s">
         <v>412</v>
       </c>
@@ -14782,7 +16057,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="35"/>
+      <c r="A203" s="32"/>
       <c r="B203" s="4" t="s">
         <v>413</v>
       </c>
@@ -14900,7 +16175,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A209" s="34"/>
+      <c r="A209" s="31"/>
       <c r="B209" s="13" t="s">
         <v>424</v>
       </c>
@@ -14918,7 +16193,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="35"/>
+      <c r="A210" s="32"/>
       <c r="B210" s="4" t="s">
         <v>426</v>
       </c>
@@ -14974,7 +16249,7 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A213" s="34"/>
+      <c r="A213" s="31"/>
       <c r="B213" s="13" t="s">
         <v>431</v>
       </c>
@@ -14990,7 +16265,7 @@
       <c r="F213" s="11"/>
     </row>
     <row r="214" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="35"/>
+      <c r="A214" s="32"/>
       <c r="B214" s="4" t="s">
         <v>432</v>
       </c>
@@ -16046,7 +17321,7 @@
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A267" s="34"/>
+      <c r="A267" s="31"/>
       <c r="B267" s="13" t="s">
         <v>533</v>
       </c>
@@ -16064,7 +17339,7 @@
       </c>
     </row>
     <row r="268" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="35"/>
+      <c r="A268" s="32"/>
       <c r="B268" s="4" t="s">
         <v>534</v>
       </c>
@@ -17579,20 +18854,790 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A202:A203"/>
-    <mergeCell ref="A209:A210"/>
-    <mergeCell ref="A213:A214"/>
-    <mergeCell ref="A267:A268"/>
-    <mergeCell ref="D103:D105"/>
     <mergeCell ref="E103:E105"/>
     <mergeCell ref="F103:F105"/>
     <mergeCell ref="A98:A99"/>
     <mergeCell ref="A103:A105"/>
     <mergeCell ref="B103:B105"/>
     <mergeCell ref="C103:C105"/>
+    <mergeCell ref="A202:A203"/>
+    <mergeCell ref="A209:A210"/>
+    <mergeCell ref="A213:A214"/>
+    <mergeCell ref="A267:A268"/>
+    <mergeCell ref="D103:D105"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF885C7-0E49-4834-9F5A-82A1A77BE305}">
+  <dimension ref="A1:E67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="8.625" customWidth="1"/>
+    <col min="5" max="5" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C1" t="s">
+        <v>697</v>
+      </c>
+      <c r="E1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B2" t="s">
+        <v>699</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>700</v>
+      </c>
+      <c r="B3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>702</v>
+      </c>
+      <c r="B4" t="s">
+        <v>703</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B5" t="s">
+        <v>705</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B6" t="s">
+        <v>707</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>708</v>
+      </c>
+      <c r="B7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>710</v>
+      </c>
+      <c r="B8" t="s">
+        <v>711</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>712</v>
+      </c>
+      <c r="B9" t="s">
+        <v>713</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>714</v>
+      </c>
+      <c r="B10" t="s">
+        <v>715</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>716</v>
+      </c>
+      <c r="B11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>717</v>
+      </c>
+      <c r="B12" t="s">
+        <v>718</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>720</v>
+      </c>
+      <c r="B14" t="s">
+        <v>791</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>721</v>
+      </c>
+      <c r="B15" t="s">
+        <v>722</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>723</v>
+      </c>
+      <c r="B16" t="s">
+        <v>724</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>725</v>
+      </c>
+      <c r="B17" t="s">
+        <v>726</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>727</v>
+      </c>
+      <c r="B18" t="s">
+        <v>728</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>729</v>
+      </c>
+      <c r="B19" t="s">
+        <v>730</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>731</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>732</v>
+      </c>
+      <c r="B21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>787</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>733</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>734</v>
+      </c>
+      <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>735</v>
+      </c>
+      <c r="B27" t="s">
+        <v>792</v>
+      </c>
+      <c r="C27">
+        <v>2.5</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>736</v>
+      </c>
+      <c r="B28" t="s">
+        <v>737</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>738</v>
+      </c>
+      <c r="B29" t="s">
+        <v>739</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>740</v>
+      </c>
+      <c r="B30" t="s">
+        <v>741</v>
+      </c>
+      <c r="C30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>742</v>
+      </c>
+      <c r="B31" t="s">
+        <v>743</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>744</v>
+      </c>
+      <c r="B32" t="s">
+        <v>745</v>
+      </c>
+      <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>746</v>
+      </c>
+      <c r="B33" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>784</v>
+      </c>
+      <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>780</v>
+      </c>
+      <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>783</v>
+      </c>
+      <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>747</v>
+      </c>
+      <c r="B40" t="s">
+        <v>748</v>
+      </c>
+      <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>749</v>
+      </c>
+      <c r="B41" t="s">
+        <v>750</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>751</v>
+      </c>
+      <c r="B42" t="s">
+        <v>752</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>753</v>
+      </c>
+      <c r="B43" t="s">
+        <v>754</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>781</v>
+      </c>
+      <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>782</v>
+      </c>
+      <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>755</v>
+      </c>
+      <c r="B48" t="s">
+        <v>756</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>757</v>
+      </c>
+      <c r="B49" t="s">
+        <v>793</v>
+      </c>
+      <c r="C49">
+        <v>1.5</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>758</v>
+      </c>
+      <c r="B50" t="s">
+        <v>759</v>
+      </c>
+      <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>760</v>
+      </c>
+      <c r="B51" t="s">
+        <v>761</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="E51">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>762</v>
+      </c>
+      <c r="B52" t="s">
+        <v>763</v>
+      </c>
+      <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>795</v>
+      </c>
+      <c r="C54">
+        <v>0.7</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>796</v>
+      </c>
+      <c r="C56">
+        <v>0.3</v>
+      </c>
+      <c r="E56">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>797</v>
+      </c>
+      <c r="C58">
+        <v>0.2</v>
+      </c>
+      <c r="E58">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>764</v>
+      </c>
+      <c r="B59" t="s">
+        <v>794</v>
+      </c>
+      <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>765</v>
+      </c>
+      <c r="B60" t="s">
+        <v>766</v>
+      </c>
+      <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>767</v>
+      </c>
+      <c r="B61" t="s">
+        <v>768</v>
+      </c>
+      <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>769</v>
+      </c>
+      <c r="B62" t="s">
+        <v>770</v>
+      </c>
+      <c r="C62">
+        <v>0.7</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>771</v>
+      </c>
+      <c r="B63" t="s">
+        <v>772</v>
+      </c>
+      <c r="C63">
+        <v>1.5</v>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>773</v>
+      </c>
+      <c r="B64" t="s">
+        <v>774</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="E64">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>775</v>
+      </c>
+      <c r="B65" t="s">
+        <v>776</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>777</v>
+      </c>
+      <c r="B66" t="s">
+        <v>778</v>
+      </c>
+      <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>779</v>
+      </c>
+      <c r="B67" t="s">
+        <v>788</v>
+      </c>
+      <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>